--- a/priv/statistics/ora_bench_status_1.2.0_std_vm.xlsx
+++ b/priv/statistics/ora_bench_status_1.2.0_std_vm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA83FEEA-7789-4F88-992C-AF27F1421C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50567643-EA22-462D-AE44-BB3A7F236D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +233,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -292,7 +308,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,17 +364,18 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
@@ -684,7 +701,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y16" sqref="Y16"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,138 +711,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="28" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="29" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
       <c r="T1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="29" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
       <c r="AB1" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
       <c r="AJ1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="AK1" s="28"/>
       <c r="AL1" s="28"/>
       <c r="AM1" s="28"/>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
     </row>
     <row r="2" spans="1:43" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
       <c r="AB2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
       <c r="AE2" s="28"/>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
       <c r="AJ2" s="28" t="s">
         <v>16</v>
       </c>
       <c r="AK2" s="28"/>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="32"/>
     </row>
     <row r="3" spans="1:43" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1002,10 +1019,10 @@
       <c r="Q4" s="25">
         <v>1954</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="34">
         <v>1793</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="34">
         <v>18028</v>
       </c>
       <c r="T4" s="26">
@@ -1056,10 +1073,18 @@
       <c r="AI4" s="25">
         <v>19154</v>
       </c>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
+      <c r="AJ4" s="26">
+        <v>1959</v>
+      </c>
+      <c r="AK4" s="26">
+        <v>2923</v>
+      </c>
+      <c r="AL4" s="26">
+        <v>2138</v>
+      </c>
+      <c r="AM4" s="26">
+        <v>22102</v>
+      </c>
       <c r="AN4" s="25">
         <v>2238</v>
       </c>
@@ -1093,7 +1118,7 @@
       <c r="I5" s="25">
         <v>3367</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="33">
         <v>3039</v>
       </c>
       <c r="K5" s="25">
@@ -1108,7 +1133,7 @@
       <c r="N5" s="26">
         <v>2694</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="33">
         <v>125009</v>
       </c>
       <c r="P5" s="25">
@@ -1117,10 +1142,10 @@
       <c r="Q5" s="25">
         <v>1008</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="34">
         <v>948</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="34">
         <v>9594</v>
       </c>
       <c r="T5" s="26">
@@ -1129,7 +1154,7 @@
       <c r="U5" s="26">
         <v>1543</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="26">
         <v>974</v>
       </c>
       <c r="W5" s="26">
@@ -1155,10 +1180,18 @@
       <c r="AI5" s="25">
         <v>20169</v>
       </c>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
+      <c r="AJ5" s="26">
+        <v>970</v>
+      </c>
+      <c r="AK5" s="26">
+        <v>1065</v>
+      </c>
+      <c r="AL5" s="26">
+        <v>1009</v>
+      </c>
+      <c r="AM5" s="26">
+        <v>10759</v>
+      </c>
       <c r="AN5" s="25">
         <v>981</v>
       </c>
@@ -1216,10 +1249,10 @@
       <c r="Q6" s="25">
         <v>1913</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="34">
         <v>1804</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="34">
         <v>18139</v>
       </c>
       <c r="T6" s="26">
@@ -1270,10 +1303,18 @@
       <c r="AI6" s="25">
         <v>23273</v>
       </c>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
+      <c r="AJ6" s="26">
+        <v>2322</v>
+      </c>
+      <c r="AK6" s="26">
+        <v>2493</v>
+      </c>
+      <c r="AL6" s="26">
+        <v>2391</v>
+      </c>
+      <c r="AM6" s="26">
+        <v>24608</v>
+      </c>
       <c r="AN6" s="25">
         <v>2445</v>
       </c>
@@ -1307,7 +1348,7 @@
       <c r="I7" s="25">
         <v>3238</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="33">
         <v>3103</v>
       </c>
       <c r="K7" s="25">
@@ -1322,7 +1363,7 @@
       <c r="N7" s="26">
         <v>2362</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="33">
         <v>118958</v>
       </c>
       <c r="P7" s="25">
@@ -1331,10 +1372,10 @@
       <c r="Q7" s="25">
         <v>2026</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="34">
         <v>1075</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="34">
         <v>10850</v>
       </c>
       <c r="T7" s="26">
@@ -1364,15 +1405,23 @@
         <v>2427</v>
       </c>
       <c r="AH7" s="25">
-        <v>208</v>
+        <v>2208</v>
       </c>
       <c r="AI7" s="25">
         <v>23116</v>
       </c>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
+      <c r="AJ7" s="26">
+        <v>968</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>2883</v>
+      </c>
+      <c r="AL7" s="26">
+        <v>1218</v>
+      </c>
+      <c r="AM7" s="26">
+        <v>12878</v>
+      </c>
       <c r="AN7" s="25">
         <v>995</v>
       </c>
@@ -1389,18 +1438,6 @@
     <row r="9" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AJ2:AM2"/>
@@ -1411,6 +1448,18 @@
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
